--- a/config_7.13/shoping_config_cjj.xlsx
+++ b/config_7.13/shoping_config_cjj.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="1853">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5855,6 +5855,9 @@
   </si>
   <si>
     <t>消暑礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq_cjj",</t>
   </si>
   <si>
     <t>抽奖礼包</t>
@@ -6798,7 +6801,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6806,61 +6809,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6873,16 +6829,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6898,7 +6855,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6912,6 +6869,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -6920,8 +6884,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6929,6 +6901,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7032,19 +7035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7056,19 +7053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7086,7 +7071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7104,7 +7095,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7116,13 +7143,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7134,55 +7173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7222,31 +7225,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7269,24 +7266,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -7296,16 +7275,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7319,6 +7298,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7327,10 +7330,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7339,109 +7342,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7450,22 +7453,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10199,11 +10202,11 @@
   <dimension ref="A1:AIG694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H661" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q664" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I677" sqref="I677"/>
+      <selection pane="bottomRight" activeCell="S687" sqref="S687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -27193,7 +27196,6 @@
       <c r="G274" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="H274" s="21"/>
       <c r="K274" s="21" t="s">
         <v>734</v>
       </c>
@@ -47302,7 +47304,6 @@
       <c r="G580" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="H580" s="31"/>
       <c r="J580" s="31" t="s">
         <v>1513</v>
       </c>
@@ -49384,7 +49385,6 @@
       <c r="G611" s="31" t="s">
         <v>1571</v>
       </c>
-      <c r="H611" s="31"/>
       <c r="K611" s="28" t="s">
         <v>1572</v>
       </c>
@@ -49447,7 +49447,6 @@
       <c r="G612" s="31" t="s">
         <v>1571</v>
       </c>
-      <c r="H612" s="31"/>
       <c r="K612" s="28" t="s">
         <v>1575</v>
       </c>
@@ -49510,7 +49509,6 @@
       <c r="G613" s="31" t="s">
         <v>1571</v>
       </c>
-      <c r="H613" s="31"/>
       <c r="K613" s="28" t="s">
         <v>1577</v>
       </c>
@@ -49573,7 +49571,6 @@
       <c r="G614" s="31" t="s">
         <v>1571</v>
       </c>
-      <c r="H614" s="31"/>
       <c r="K614" s="28" t="s">
         <v>1579</v>
       </c>
@@ -49636,7 +49633,6 @@
       <c r="G615" s="31" t="s">
         <v>1571</v>
       </c>
-      <c r="H615" s="31"/>
       <c r="K615" s="28" t="s">
         <v>1581</v>
       </c>
@@ -49699,7 +49695,6 @@
       <c r="G616" s="31" t="s">
         <v>1571</v>
       </c>
-      <c r="H616" s="31"/>
       <c r="K616" s="28" t="s">
         <v>1583</v>
       </c>
@@ -49762,7 +49757,6 @@
       <c r="G617" s="31" t="s">
         <v>1585</v>
       </c>
-      <c r="H617" s="31"/>
       <c r="K617" s="31" t="s">
         <v>1337</v>
       </c>
@@ -49828,7 +49822,6 @@
       <c r="G618" s="31" t="s">
         <v>1585</v>
       </c>
-      <c r="H618" s="31"/>
       <c r="K618" s="31" t="s">
         <v>1337</v>
       </c>
@@ -49897,7 +49890,6 @@
       <c r="G619" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H619" s="31"/>
       <c r="I619"/>
       <c r="J619" s="28" t="s">
         <v>1587</v>
@@ -50860,7 +50852,6 @@
       <c r="G620" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H620" s="31"/>
       <c r="I620"/>
       <c r="J620" s="28" t="s">
         <v>1587</v>
@@ -51823,7 +51814,6 @@
       <c r="G621" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H621" s="31"/>
       <c r="I621"/>
       <c r="J621" s="28" t="s">
         <v>1587</v>
@@ -52786,7 +52776,6 @@
       <c r="G622" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H622" s="31"/>
       <c r="I622"/>
       <c r="J622" s="28" t="s">
         <v>1552</v>
@@ -53749,7 +53738,6 @@
       <c r="G623" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H623" s="31"/>
       <c r="I623"/>
       <c r="J623" s="28" t="s">
         <v>1552</v>
@@ -54712,7 +54700,6 @@
       <c r="G624" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H624" s="31"/>
       <c r="I624"/>
       <c r="J624" s="28" t="s">
         <v>1552</v>
@@ -55675,7 +55662,6 @@
       <c r="G625" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H625" s="31"/>
       <c r="I625"/>
       <c r="J625" s="28" t="s">
         <v>1441</v>
@@ -56638,7 +56624,6 @@
       <c r="G626" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H626" s="31"/>
       <c r="I626"/>
       <c r="J626" s="28" t="s">
         <v>1441</v>
@@ -57601,7 +57586,6 @@
       <c r="G627" s="31" t="s">
         <v>1586</v>
       </c>
-      <c r="H627" s="31"/>
       <c r="I627"/>
       <c r="J627" s="28" t="s">
         <v>1441</v>
@@ -58561,7 +58545,6 @@
       <c r="G628" s="31" t="s">
         <v>1113</v>
       </c>
-      <c r="H628" s="31"/>
       <c r="K628" s="31" t="s">
         <v>1606</v>
       </c>
@@ -58624,7 +58607,6 @@
       <c r="G629" s="31" t="s">
         <v>1117</v>
       </c>
-      <c r="H629" s="31"/>
       <c r="K629" s="31" t="s">
         <v>1608</v>
       </c>
@@ -58687,7 +58669,6 @@
       <c r="G630" s="31" t="s">
         <v>1120</v>
       </c>
-      <c r="H630" s="31"/>
       <c r="K630" s="31" t="s">
         <v>1609</v>
       </c>
@@ -58750,7 +58731,6 @@
       <c r="G631" s="31" t="s">
         <v>1124</v>
       </c>
-      <c r="H631" s="31"/>
       <c r="K631" s="31" t="s">
         <v>1611</v>
       </c>
@@ -58813,7 +58793,6 @@
       <c r="G632" s="31" t="s">
         <v>1127</v>
       </c>
-      <c r="H632" s="31"/>
       <c r="K632" s="31" t="s">
         <v>1612</v>
       </c>
@@ -58876,7 +58855,6 @@
       <c r="G633" s="31" t="s">
         <v>1130</v>
       </c>
-      <c r="H633" s="31"/>
       <c r="K633" s="31" t="s">
         <v>1613</v>
       </c>
@@ -58939,7 +58917,6 @@
       <c r="G634" s="31" t="s">
         <v>1134</v>
       </c>
-      <c r="H634" s="31"/>
       <c r="K634" s="31" t="s">
         <v>1615</v>
       </c>
@@ -59002,7 +58979,6 @@
       <c r="G635" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H635" s="31"/>
       <c r="J635" s="28" t="s">
         <v>1538</v>
       </c>
@@ -59071,7 +59047,6 @@
       <c r="G636" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H636" s="31"/>
       <c r="J636" s="28" t="s">
         <v>1538</v>
       </c>
@@ -59140,7 +59115,6 @@
       <c r="G637" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H637" s="31"/>
       <c r="J637" s="28" t="s">
         <v>1538</v>
       </c>
@@ -59209,7 +59183,6 @@
       <c r="G638" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H638" s="31"/>
       <c r="J638" s="28" t="s">
         <v>1545</v>
       </c>
@@ -59278,7 +59251,6 @@
       <c r="G639" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H639" s="31"/>
       <c r="J639" s="28" t="s">
         <v>1545</v>
       </c>
@@ -59347,7 +59319,6 @@
       <c r="G640" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H640" s="31"/>
       <c r="J640" s="28" t="s">
         <v>1545</v>
       </c>
@@ -59416,7 +59387,6 @@
       <c r="G641" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H641" s="31"/>
       <c r="J641" s="28" t="s">
         <v>1552</v>
       </c>
@@ -59485,7 +59455,6 @@
       <c r="G642" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H642" s="31"/>
       <c r="J642" s="28" t="s">
         <v>1552</v>
       </c>
@@ -59554,7 +59523,6 @@
       <c r="G643" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H643" s="31"/>
       <c r="J643" s="28" t="s">
         <v>1552</v>
       </c>
@@ -59623,7 +59591,6 @@
       <c r="G644" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H644" s="31"/>
       <c r="J644" s="28" t="s">
         <v>1441</v>
       </c>
@@ -59692,7 +59659,6 @@
       <c r="G645" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H645" s="31"/>
       <c r="J645" s="28" t="s">
         <v>1441</v>
       </c>
@@ -59761,7 +59727,6 @@
       <c r="G646" s="31" t="s">
         <v>1616</v>
       </c>
-      <c r="H646" s="31"/>
       <c r="J646" s="28" t="s">
         <v>1441</v>
       </c>
@@ -59954,7 +59919,6 @@
       <c r="G649" s="31" t="s">
         <v>1386</v>
       </c>
-      <c r="H649" s="31"/>
       <c r="K649" s="28" t="s">
         <v>1572</v>
       </c>
@@ -60017,7 +59981,6 @@
       <c r="G650" s="31" t="s">
         <v>1386</v>
       </c>
-      <c r="H650" s="31"/>
       <c r="K650" s="28" t="s">
         <v>1575</v>
       </c>
@@ -60080,7 +60043,6 @@
       <c r="G651" s="31" t="s">
         <v>1386</v>
       </c>
-      <c r="H651" s="31"/>
       <c r="K651" s="28" t="s">
         <v>1577</v>
       </c>
@@ -60143,7 +60105,6 @@
       <c r="G652" s="31" t="s">
         <v>1386</v>
       </c>
-      <c r="H652" s="31"/>
       <c r="K652" s="28" t="s">
         <v>1579</v>
       </c>
@@ -60206,7 +60167,6 @@
       <c r="G653" s="31" t="s">
         <v>1386</v>
       </c>
-      <c r="H653" s="31"/>
       <c r="K653" s="28" t="s">
         <v>1581</v>
       </c>
@@ -60269,7 +60229,6 @@
       <c r="G654" s="31" t="s">
         <v>1386</v>
       </c>
-      <c r="H654" s="31"/>
       <c r="K654" s="28" t="s">
         <v>1583</v>
       </c>
@@ -60332,7 +60291,6 @@
       <c r="G655" s="31" t="s">
         <v>1113</v>
       </c>
-      <c r="H655" s="31"/>
       <c r="K655" s="31" t="s">
         <v>1606</v>
       </c>
@@ -60395,7 +60353,6 @@
       <c r="G656" s="31" t="s">
         <v>1117</v>
       </c>
-      <c r="H656" s="31"/>
       <c r="K656" s="31" t="s">
         <v>1608</v>
       </c>
@@ -60458,7 +60415,6 @@
       <c r="G657" s="31" t="s">
         <v>1120</v>
       </c>
-      <c r="H657" s="31"/>
       <c r="K657" s="31" t="s">
         <v>1609</v>
       </c>
@@ -60521,7 +60477,6 @@
       <c r="G658" s="31" t="s">
         <v>1124</v>
       </c>
-      <c r="H658" s="31"/>
       <c r="K658" s="31" t="s">
         <v>1611</v>
       </c>
@@ -60584,7 +60539,6 @@
       <c r="G659" s="31" t="s">
         <v>1127</v>
       </c>
-      <c r="H659" s="31"/>
       <c r="K659" s="31" t="s">
         <v>1612</v>
       </c>
@@ -60647,7 +60601,6 @@
       <c r="G660" s="31" t="s">
         <v>1130</v>
       </c>
-      <c r="H660" s="31"/>
       <c r="K660" s="31" t="s">
         <v>1613</v>
       </c>
@@ -60710,7 +60663,6 @@
       <c r="G661" s="31" t="s">
         <v>1134</v>
       </c>
-      <c r="H661" s="31"/>
       <c r="K661" s="31" t="s">
         <v>1615</v>
       </c>
@@ -62215,22 +62167,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:40">
+    <row r="683" customFormat="1" ht="14.25" spans="1:41">
       <c r="A683" s="21">
         <v>682</v>
       </c>
       <c r="B683" s="31">
         <v>10599</v>
       </c>
+      <c r="C683" s="31"/>
+      <c r="D683" s="31"/>
+      <c r="E683" s="21"/>
       <c r="F683" s="21">
         <v>1</v>
       </c>
       <c r="G683" s="31" t="s">
         <v>1647</v>
       </c>
+      <c r="H683" s="31"/>
+      <c r="I683" s="31"/>
+      <c r="J683" s="31"/>
       <c r="K683" s="28" t="s">
         <v>1572</v>
       </c>
+      <c r="L683" s="31"/>
       <c r="M683" s="28">
         <v>-31</v>
       </c>
@@ -62247,11 +62206,15 @@
         <v>49800</v>
       </c>
       <c r="R683" s="28" t="s">
-        <v>1573</v>
+        <v>1648</v>
       </c>
       <c r="S683" s="56" t="s">
         <v>1574</v>
       </c>
+      <c r="T683" s="31"/>
+      <c r="U683" s="31"/>
+      <c r="V683" s="31"/>
+      <c r="W683" s="31"/>
       <c r="X683" s="21" t="s">
         <v>1302</v>
       </c>
@@ -62267,35 +62230,51 @@
       <c r="AB683" s="31">
         <v>69</v>
       </c>
+      <c r="AC683" s="31"/>
+      <c r="AD683" s="31"/>
+      <c r="AE683" s="31"/>
+      <c r="AF683" s="31"/>
+      <c r="AG683" s="31"/>
+      <c r="AH683" s="31"/>
       <c r="AI683" s="31">
         <v>1</v>
       </c>
       <c r="AJ683" s="31">
         <v>1</v>
       </c>
+      <c r="AK683" s="31"/>
+      <c r="AL683" s="31"/>
       <c r="AM683" s="31">
         <v>1</v>
       </c>
       <c r="AN683" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="684" spans="1:40">
+      <c r="AO683" s="31"/>
+    </row>
+    <row r="684" customFormat="1" ht="14.25" spans="1:41">
       <c r="A684" s="21">
         <v>683</v>
       </c>
       <c r="B684" s="31">
         <v>10600</v>
       </c>
+      <c r="C684" s="31"/>
+      <c r="D684" s="31"/>
+      <c r="E684" s="21"/>
       <c r="F684" s="21">
         <v>1</v>
       </c>
       <c r="G684" s="31" t="s">
         <v>1647</v>
       </c>
+      <c r="H684" s="31"/>
+      <c r="I684" s="31"/>
+      <c r="J684" s="31"/>
       <c r="K684" s="28" t="s">
         <v>1575</v>
       </c>
+      <c r="L684" s="31"/>
       <c r="M684" s="28">
         <v>-31</v>
       </c>
@@ -62312,11 +62291,15 @@
         <v>19800</v>
       </c>
       <c r="R684" s="28" t="s">
-        <v>1573</v>
+        <v>1648</v>
       </c>
       <c r="S684" s="56" t="s">
         <v>1576</v>
       </c>
+      <c r="T684" s="31"/>
+      <c r="U684" s="31"/>
+      <c r="V684" s="31"/>
+      <c r="W684" s="31"/>
       <c r="X684" s="21" t="s">
         <v>1302</v>
       </c>
@@ -62332,35 +62315,51 @@
       <c r="AB684" s="31">
         <v>69</v>
       </c>
+      <c r="AC684" s="31"/>
+      <c r="AD684" s="31"/>
+      <c r="AE684" s="31"/>
+      <c r="AF684" s="31"/>
+      <c r="AG684" s="31"/>
+      <c r="AH684" s="31"/>
       <c r="AI684" s="31">
         <v>1</v>
       </c>
       <c r="AJ684" s="31">
         <v>1</v>
       </c>
+      <c r="AK684" s="31"/>
+      <c r="AL684" s="31"/>
       <c r="AM684" s="31">
         <v>1</v>
       </c>
       <c r="AN684" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="685" spans="1:40">
+      <c r="AO684" s="31"/>
+    </row>
+    <row r="685" customFormat="1" ht="14.25" spans="1:41">
       <c r="A685" s="21">
         <v>684</v>
       </c>
       <c r="B685" s="31">
         <v>10601</v>
       </c>
+      <c r="C685" s="31"/>
+      <c r="D685" s="31"/>
+      <c r="E685" s="21"/>
       <c r="F685" s="21">
         <v>1</v>
       </c>
       <c r="G685" s="31" t="s">
         <v>1647</v>
       </c>
+      <c r="H685" s="31"/>
+      <c r="I685" s="31"/>
+      <c r="J685" s="31"/>
       <c r="K685" s="28" t="s">
         <v>1577</v>
       </c>
+      <c r="L685" s="31"/>
       <c r="M685" s="28">
         <v>-31</v>
       </c>
@@ -62377,11 +62376,15 @@
         <v>9800</v>
       </c>
       <c r="R685" s="28" t="s">
-        <v>1573</v>
+        <v>1648</v>
       </c>
       <c r="S685" s="56" t="s">
         <v>1578</v>
       </c>
+      <c r="T685" s="31"/>
+      <c r="U685" s="31"/>
+      <c r="V685" s="31"/>
+      <c r="W685" s="31"/>
       <c r="X685" s="21" t="s">
         <v>1302</v>
       </c>
@@ -62397,35 +62400,51 @@
       <c r="AB685" s="31">
         <v>69</v>
       </c>
+      <c r="AC685" s="31"/>
+      <c r="AD685" s="31"/>
+      <c r="AE685" s="31"/>
+      <c r="AF685" s="31"/>
+      <c r="AG685" s="31"/>
+      <c r="AH685" s="31"/>
       <c r="AI685" s="31">
         <v>1</v>
       </c>
       <c r="AJ685" s="31">
         <v>1</v>
       </c>
+      <c r="AK685" s="31"/>
+      <c r="AL685" s="31"/>
       <c r="AM685" s="31">
         <v>1</v>
       </c>
       <c r="AN685" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="686" spans="1:40">
+      <c r="AO685" s="31"/>
+    </row>
+    <row r="686" customFormat="1" ht="14.25" spans="1:41">
       <c r="A686" s="21">
         <v>685</v>
       </c>
       <c r="B686" s="31">
         <v>10602</v>
       </c>
+      <c r="C686" s="31"/>
+      <c r="D686" s="31"/>
+      <c r="E686" s="21"/>
       <c r="F686" s="21">
         <v>1</v>
       </c>
       <c r="G686" s="31" t="s">
         <v>1647</v>
       </c>
+      <c r="H686" s="31"/>
+      <c r="I686" s="31"/>
+      <c r="J686" s="31"/>
       <c r="K686" s="28" t="s">
         <v>1579</v>
       </c>
+      <c r="L686" s="31"/>
       <c r="M686" s="28">
         <v>-31</v>
       </c>
@@ -62442,11 +62461,15 @@
         <v>4800</v>
       </c>
       <c r="R686" s="28" t="s">
-        <v>1573</v>
+        <v>1648</v>
       </c>
       <c r="S686" s="56" t="s">
         <v>1580</v>
       </c>
+      <c r="T686" s="31"/>
+      <c r="U686" s="31"/>
+      <c r="V686" s="31"/>
+      <c r="W686" s="31"/>
       <c r="X686" s="21" t="s">
         <v>1302</v>
       </c>
@@ -62462,35 +62485,51 @@
       <c r="AB686" s="31">
         <v>69</v>
       </c>
+      <c r="AC686" s="31"/>
+      <c r="AD686" s="31"/>
+      <c r="AE686" s="31"/>
+      <c r="AF686" s="31"/>
+      <c r="AG686" s="31"/>
+      <c r="AH686" s="31"/>
       <c r="AI686" s="31">
         <v>1</v>
       </c>
       <c r="AJ686" s="31">
         <v>1</v>
       </c>
+      <c r="AK686" s="31"/>
+      <c r="AL686" s="31"/>
       <c r="AM686" s="31">
         <v>1</v>
       </c>
       <c r="AN686" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="687" spans="1:40">
+      <c r="AO686" s="31"/>
+    </row>
+    <row r="687" customFormat="1" ht="14.25" spans="1:41">
       <c r="A687" s="21">
         <v>686</v>
       </c>
       <c r="B687" s="31">
         <v>10603</v>
       </c>
+      <c r="C687" s="31"/>
+      <c r="D687" s="31"/>
+      <c r="E687" s="21"/>
       <c r="F687" s="21">
         <v>1</v>
       </c>
       <c r="G687" s="31" t="s">
         <v>1647</v>
       </c>
+      <c r="H687" s="31"/>
+      <c r="I687" s="31"/>
+      <c r="J687" s="31"/>
       <c r="K687" s="28" t="s">
         <v>1581</v>
       </c>
+      <c r="L687" s="31"/>
       <c r="M687" s="28">
         <v>-31</v>
       </c>
@@ -62507,11 +62546,15 @@
         <v>2000</v>
       </c>
       <c r="R687" s="28" t="s">
-        <v>1573</v>
+        <v>1648</v>
       </c>
       <c r="S687" s="56" t="s">
         <v>1582</v>
       </c>
+      <c r="T687" s="31"/>
+      <c r="U687" s="31"/>
+      <c r="V687" s="31"/>
+      <c r="W687" s="31"/>
       <c r="X687" s="21" t="s">
         <v>1302</v>
       </c>
@@ -62527,35 +62570,51 @@
       <c r="AB687" s="31">
         <v>69</v>
       </c>
+      <c r="AC687" s="31"/>
+      <c r="AD687" s="31"/>
+      <c r="AE687" s="31"/>
+      <c r="AF687" s="31"/>
+      <c r="AG687" s="31"/>
+      <c r="AH687" s="31"/>
       <c r="AI687" s="31">
         <v>1</v>
       </c>
       <c r="AJ687" s="31">
         <v>1</v>
       </c>
+      <c r="AK687" s="31"/>
+      <c r="AL687" s="31"/>
       <c r="AM687" s="31">
         <v>1</v>
       </c>
       <c r="AN687" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="688" spans="1:40">
+      <c r="AO687" s="31"/>
+    </row>
+    <row r="688" customFormat="1" ht="14.25" spans="1:41">
       <c r="A688" s="21">
         <v>687</v>
       </c>
       <c r="B688" s="31">
         <v>10604</v>
       </c>
+      <c r="C688" s="31"/>
+      <c r="D688" s="31"/>
+      <c r="E688" s="21"/>
       <c r="F688" s="21">
         <v>1</v>
       </c>
       <c r="G688" s="31" t="s">
         <v>1647</v>
       </c>
+      <c r="H688" s="31"/>
+      <c r="I688" s="31"/>
+      <c r="J688" s="31"/>
       <c r="K688" s="28" t="s">
         <v>1583</v>
       </c>
+      <c r="L688" s="31"/>
       <c r="M688" s="28">
         <v>-31</v>
       </c>
@@ -62572,11 +62631,15 @@
         <v>600</v>
       </c>
       <c r="R688" s="28" t="s">
-        <v>1573</v>
+        <v>1648</v>
       </c>
       <c r="S688" s="56" t="s">
         <v>1584</v>
       </c>
+      <c r="T688" s="31"/>
+      <c r="U688" s="31"/>
+      <c r="V688" s="31"/>
+      <c r="W688" s="31"/>
       <c r="X688" s="21" t="s">
         <v>1302</v>
       </c>
@@ -62592,18 +62655,27 @@
       <c r="AB688" s="31">
         <v>69</v>
       </c>
+      <c r="AC688" s="31"/>
+      <c r="AD688" s="31"/>
+      <c r="AE688" s="31"/>
+      <c r="AF688" s="31"/>
+      <c r="AG688" s="31"/>
+      <c r="AH688" s="31"/>
       <c r="AI688" s="31">
         <v>1</v>
       </c>
       <c r="AJ688" s="31">
         <v>1</v>
       </c>
+      <c r="AK688" s="31"/>
+      <c r="AL688" s="31"/>
       <c r="AM688" s="31">
         <v>1</v>
       </c>
       <c r="AN688" s="31">
         <v>1</v>
       </c>
+      <c r="AO688" s="31"/>
     </row>
     <row r="689" spans="1:40">
       <c r="A689" s="21">
@@ -62616,10 +62688,10 @@
         <v>0</v>
       </c>
       <c r="G689" s="31" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K689" s="28" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="M689" s="28">
         <v>-31</v>
@@ -62681,10 +62753,10 @@
         <v>0</v>
       </c>
       <c r="G690" s="31" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K690" s="28" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="M690" s="28">
         <v>-31</v>
@@ -62746,10 +62818,10 @@
         <v>0</v>
       </c>
       <c r="G691" s="31" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K691" s="28" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="M691" s="28">
         <v>-31</v>
@@ -62811,10 +62883,10 @@
         <v>0</v>
       </c>
       <c r="G692" s="31" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K692" s="28" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="M692" s="28">
         <v>-31</v>
@@ -62876,10 +62948,10 @@
         <v>0</v>
       </c>
       <c r="G693" s="31" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K693" s="28" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="M693" s="28">
         <v>-31</v>
@@ -62941,10 +63013,10 @@
         <v>0</v>
       </c>
       <c r="G694" s="31" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K694" s="28" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="M694" s="28">
         <v>-31</v>
@@ -63021,19 +63093,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -63041,7 +63113,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -63050,7 +63122,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -63058,7 +63130,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -63072,7 +63144,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -63086,7 +63158,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -63100,7 +63172,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -63114,7 +63186,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -63128,7 +63200,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -63142,7 +63214,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -63156,7 +63228,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -63170,7 +63242,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -63184,7 +63256,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -63198,7 +63270,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -63212,7 +63284,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -63226,7 +63298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -63240,7 +63312,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -63254,7 +63326,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -63268,7 +63340,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -63282,7 +63354,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -63296,7 +63368,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -63310,7 +63382,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -63324,7 +63396,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -63338,7 +63410,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -63352,7 +63424,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -63366,7 +63438,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -63380,7 +63452,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -63394,7 +63466,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -63409,7 +63481,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -63424,7 +63496,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -63439,7 +63511,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -63454,7 +63526,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -63469,7 +63541,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -63484,7 +63556,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -63499,7 +63571,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -63514,7 +63586,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -63529,7 +63601,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -63544,7 +63616,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -63559,7 +63631,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -63574,7 +63646,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -63588,7 +63660,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -63602,7 +63674,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -63616,7 +63688,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -63630,7 +63702,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -63644,7 +63716,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -63658,7 +63730,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -63672,7 +63744,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -63686,7 +63758,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -63700,7 +63772,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -63714,7 +63786,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -63728,7 +63800,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -63742,7 +63814,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -63756,7 +63828,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -63770,7 +63842,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -63784,7 +63856,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -63798,7 +63870,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -63812,7 +63884,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -63826,7 +63898,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -63840,7 +63912,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -63854,7 +63926,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -63868,7 +63940,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -63882,7 +63954,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -63896,7 +63968,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -63910,7 +63982,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -63924,7 +63996,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -63938,7 +64010,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -63952,7 +64024,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -63966,7 +64038,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -63980,7 +64052,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -63994,7 +64066,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -64008,7 +64080,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -64022,7 +64094,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -64036,7 +64108,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -64050,7 +64122,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -64064,7 +64136,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -64078,7 +64150,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -64092,7 +64164,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -64106,7 +64178,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -64120,7 +64192,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -64134,7 +64206,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -64148,7 +64220,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -64162,7 +64234,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -64176,7 +64248,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -64190,7 +64262,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -64204,7 +64276,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -64218,7 +64290,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -64272,7 +64344,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -64287,19 +64359,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -64314,7 +64386,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -64359,7 +64431,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -64382,7 +64454,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -64412,19 +64484,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -64453,7 +64525,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -64480,22 +64552,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -64524,7 +64596,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -64551,22 +64623,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -64595,7 +64667,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -64622,22 +64694,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -64666,7 +64738,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -64693,22 +64765,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -64737,7 +64809,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -64764,22 +64836,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -64803,7 +64875,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -64830,22 +64902,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -64869,7 +64941,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -64896,19 +64968,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -64917,7 +64989,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -64935,7 +65007,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -64965,16 +65037,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -64983,7 +65055,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -65001,7 +65073,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -65028,22 +65100,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -65072,7 +65144,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -65099,22 +65171,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -65143,7 +65215,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -65170,22 +65242,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>1781</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>1782</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>1754</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>1783</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1780</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>1781</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>1753</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1782</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>1779</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -65214,7 +65286,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -65241,22 +65313,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -65280,7 +65352,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -65310,20 +65382,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -65332,7 +65404,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -65355,7 +65427,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -65382,22 +65454,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -65421,7 +65493,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -65448,22 +65520,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -65487,7 +65559,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -65514,22 +65586,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -65553,7 +65625,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -65580,22 +65652,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -65619,7 +65691,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -65646,22 +65718,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -65685,7 +65757,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -65712,22 +65784,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -65751,7 +65823,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -65778,20 +65850,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -65815,7 +65887,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -65845,17 +65917,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -65872,14 +65944,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -65909,20 +65981,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -65931,7 +66003,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -65954,7 +66026,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -65981,22 +66053,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -66066,13 +66138,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -66084,16 +66156,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -66134,7 +66206,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -66146,7 +66218,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -66155,7 +66227,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -66164,22 +66236,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -66190,7 +66262,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -66202,7 +66274,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -66211,7 +66283,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -66220,22 +66292,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -66249,7 +66321,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -66274,19 +66346,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -66297,7 +66369,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -66324,10 +66396,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -66338,7 +66410,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -66365,10 +66437,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -66379,7 +66451,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -66391,7 +66463,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -66400,7 +66472,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -66409,22 +66481,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -66438,10 +66510,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -66453,7 +66525,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -66468,22 +66540,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -66494,10 +66566,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -66512,16 +66584,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -66532,10 +66604,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -66550,16 +66622,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -66570,10 +66642,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -66588,16 +66660,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -66608,10 +66680,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -66626,16 +66698,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -66646,7 +66718,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -66670,16 +66742,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -66693,7 +66765,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -66717,16 +66789,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -66740,10 +66812,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -66764,16 +66836,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -66787,10 +66859,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -66806,13 +66878,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -66823,10 +66895,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -66842,13 +66914,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -66859,7 +66931,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -66878,13 +66950,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -66895,7 +66967,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -66914,13 +66986,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -66931,7 +67003,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -66949,16 +67021,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -66969,7 +67041,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -66987,16 +67059,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
